--- a/biology/Histoire de la zoologie et de la botanique/Étienne-François_Turgot/Étienne-François_Turgot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Étienne-François_Turgot/Étienne-François_Turgot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Turgot</t>
+          <t>Étienne-François_Turgot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne-François Turgot, dernier seigneur de Brucourt, marquis de Soumont, né à Paris le 16 juin 1721 et décédé le 25 décembre 1788 en son château de Bons[1], fut naturaliste, administrateur de Malte et gouverneur de Guyane. Ses connaissances en histoire naturelle, chirurgie, médecine et agriculture en firent un associé libre de l’Académie des sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne-François Turgot, dernier seigneur de Brucourt, marquis de Soumont, né à Paris le 16 juin 1721 et décédé le 25 décembre 1788 en son château de Bons, fut naturaliste, administrateur de Malte et gouverneur de Guyane. Ses connaissances en histoire naturelle, chirurgie, médecine et agriculture en firent un associé libre de l’Académie des sciences.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Turgot</t>
+          <t>Étienne-François_Turgot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le deuxième fils de Michel Etienne Turgot et Madeleine Françoise Martineau, un des frères d'Anne Robert Jacques Turgot et le beau-frère de Paul-Hippolyte de Beauvilliers, duc de Saint-Aignan.
 Destiné par sa famille à l’état militaire, il part apprendre la carrière d'officier à Malte et devient administrateur éclairé de l'île. Il rentre en France en 1764 et est nommé brigadier des armées du roi. Il fonde la société d’agriculture en 1760. Il est reçu associé libre de l’Académie des sciences en 1762.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Turgot</t>
+          <t>Étienne-François_Turgot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mémoire instructif sur la manière de rassembler, de préparer, de conserver et d'envoyer les diverses curiosités d'histoire naturelle ; auquel on a joint un mémoire intitulé : Avis pour le transport par mer, des arbres, des plantes vivaces, des semences, &amp; de diverses autres curiosités d'histoire naturelle, Paris, Jean Marie Bruyset, libraire, rue Merciere, au Soleil d'or, 1758 (en ligne) ; quelques planches.
 Observations sur l’espèce de résine élastique de l’île de France.
 Il a fourni quelques textes à Soulavie pour les parties de ses Mémoires historiques sur le règne de Louis XVI consacrées à l'histoire du ministère de son frère.
-Diderot, dans l'article « Coton, (Hist. nat. bot.) » de l’Encyclopédie[2] précise qu'il a pu appuyer sa rédaction sur « des mémoires de M. Jore[3] (...), communiqué[e]s par M. le chevalier Turgot ».
+Diderot, dans l'article « Coton, (Hist. nat. bot.) » de l’Encyclopédie précise qu'il a pu appuyer sa rédaction sur « des mémoires de M. Jore (...), communiqué[e]s par M. le chevalier Turgot ».
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Turgot</t>
+          <t>Étienne-François_Turgot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Archives Nationales, 745AP/37, Dossier 1, testament d'Etienne François Turgot, 23 décembre 1788, rédigé par un notaire de Falaise au château de Bons. Copie de la minute numérisée sur la salle des inventaires virtuelle du Caran.</t>
         </is>
